--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week 18-19" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Week 20-21" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 18-19'!$B$2:$E$39</definedName>
@@ -947,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1844,6 +1844,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1856,13 +1863,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1878,9 +1878,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1844,13 +1844,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1863,6 +1856,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1876,17 +1876,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1844,6 +1844,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1856,13 +1863,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1876,7 +1876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -1886,13 +1886,7 @@
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E8">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1844,13 +1844,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1863,6 +1856,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1876,17 +1876,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1844,6 +1844,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1856,13 +1863,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1876,23 +1876,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Week 18-19" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>MORNING</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>« Every Monday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品培训</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -947,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1322,9 +1326,15 @@
         <f>B7+1</f>
         <v>42857</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -1844,13 +1854,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1863,6 +1866,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1878,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>MORNING</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>产品培训</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58消费金融支撑工作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化接口文档学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统操作测试</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -668,6 +680,7 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -951,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1612,15 +1625,21 @@
         <f>B37+1</f>
         <v>42863</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>23</v>
+      </c>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="43"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="52" t="s">
+        <v>24</v>
+      </c>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1854,6 +1873,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1866,13 +1892,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>MORNING</t>
   </si>
@@ -102,15 +102,77 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>无纸化接口文档学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统操作测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58消费金融支撑工作</t>
+  </si>
+  <si>
     <t>长银58消费金融支撑工作</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化接口文档学习</t>
+    <t>长银59消费金融支撑工作</t>
+  </si>
+  <si>
+    <t>长沙银行vtm项目支撑工作</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化系统操作测试</t>
+    <t>部署签章测试系统（linux学习）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58消费金融无纸化系统部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行vtm项目支撑工作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长沙银行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vtm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目系统升级部署</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机linux学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA系统部署</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +188,7 @@
     <numFmt numFmtId="180" formatCode="&quot;Week &quot;00"/>
     <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +317,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -288,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -541,36 +610,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -649,8 +694,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,7 +724,7 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -964,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,11 +1024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -993,14 +1037,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1048,10 +1092,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1062,16 +1106,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="48">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1150,7 +1194,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -1190,7 +1234,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1226,7 +1270,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1335,7 +1379,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -1359,7 +1403,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1376,7 +1420,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1422,7 +1466,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="42">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -1433,7 +1477,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1441,7 +1485,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1460,7 +1504,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="42">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -1470,14 +1514,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1496,7 +1540,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="42">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -1506,14 +1550,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1532,7 +1576,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="42">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -1542,14 +1586,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1568,7 +1612,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="42">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -1578,14 +1622,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1621,30 +1665,30 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="42">
         <f>B37+1</f>
         <v>42863</v>
       </c>
       <c r="C44" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="39" t="s">
         <v>22</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>23</v>
       </c>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="52" t="s">
-        <v>24</v>
+      <c r="D45" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1668,24 +1712,34 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="42">
         <f>B44+1</f>
         <v>42864</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="15"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1709,24 +1763,34 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="42">
         <f>B49+1</f>
         <v>42865</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="15"/>
+      <c r="C54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1745,22 +1809,29 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="42">
         <f>B54+1</f>
         <v>42866</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="C59" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1779,24 +1850,26 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="42">
         <f>B59+1</f>
         <v>42867</v>
       </c>
-      <c r="C64" s="39"/>
+      <c r="C64" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1815,7 +1888,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="42">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -1823,14 +1896,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1849,7 +1922,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="42">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -1859,14 +1932,14 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -1905,18 +1978,929 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="46">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="48">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="42">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="43"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="42">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="43"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="42">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="42">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="42">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="42">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="42">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="42">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="42">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="42">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="42">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="42">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="42">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="42">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>MORNING</t>
   </si>
@@ -695,6 +695,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,7 +725,6 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1024,11 +1024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1037,14 +1037,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1092,10 +1092,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="47">
         <v>2017</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1106,16 +1106,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="48">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1270,7 +1270,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1379,7 +1379,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42">
+      <c r="B12" s="43">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1420,7 +1420,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="42">
+      <c r="B17" s="43">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="42">
+      <c r="B22" s="43">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -1514,14 +1514,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="42">
+      <c r="B27" s="43">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -1550,14 +1550,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="43"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="42">
+      <c r="B32" s="43">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -1586,14 +1586,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="43"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="42">
+      <c r="B37" s="43">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -1622,14 +1622,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="43"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="42">
+      <c r="B44" s="43">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -1675,20 +1675,24 @@
       <c r="D44" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="39" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="42"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="39" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="43"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1712,7 +1716,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="42">
+      <c r="B49" s="43">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -1728,7 +1732,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1743,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="43"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1763,7 +1767,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="42">
+      <c r="B54" s="43">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -1779,7 +1783,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="42"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -1790,7 +1794,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="43"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1809,7 +1813,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="42">
+      <c r="B59" s="43">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -1819,19 +1823,19 @@
       <c r="D59" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="42"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="43"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1850,7 +1854,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="42">
+      <c r="B64" s="43">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -1862,14 +1866,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="42"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1888,7 +1892,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="42">
+      <c r="B69" s="43">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -1896,14 +1900,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="42"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="43"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1922,7 +1926,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="42">
+      <c r="B74" s="43">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -1932,27 +1936,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="42"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1965,6 +1962,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1996,11 +2000,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2009,14 +2013,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2064,10 +2068,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="47">
         <v>2017</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2078,16 +2082,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="48">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2166,7 +2170,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -2206,7 +2210,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2242,7 +2246,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2351,7 +2355,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42">
+      <c r="B12" s="43">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -2369,7 +2373,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2386,7 +2390,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2432,7 +2436,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="42">
+      <c r="B17" s="43">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -2443,7 +2447,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2451,7 +2455,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2470,7 +2474,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="42">
+      <c r="B22" s="43">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -2480,14 +2484,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2506,7 +2510,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="42">
+      <c r="B27" s="43">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -2516,14 +2520,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="43"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2542,7 +2546,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="42">
+      <c r="B32" s="43">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -2552,14 +2556,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="43"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2578,7 +2582,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="42">
+      <c r="B37" s="43">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -2588,14 +2592,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="43"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2631,7 +2635,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="42">
+      <c r="B44" s="43">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -2641,14 +2645,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="42"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="43"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2672,7 +2676,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="42">
+      <c r="B49" s="43">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -2682,14 +2686,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="43"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2713,7 +2717,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="42">
+      <c r="B54" s="43">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -2723,14 +2727,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="42"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="43"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2749,7 +2753,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="42">
+      <c r="B59" s="43">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -2759,14 +2763,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="42"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="43"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2785,7 +2789,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="42">
+      <c r="B64" s="43">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -2795,14 +2799,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="42"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2821,7 +2825,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="42">
+      <c r="B69" s="43">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -2829,14 +2833,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="42"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="43"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2855,7 +2859,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="42">
+      <c r="B74" s="43">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2865,20 +2869,32 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="42"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -2886,18 +2902,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1950,6 +1950,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1962,13 +1969,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2883,6 +2883,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2895,13 +2902,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 18-19" sheetId="7" r:id="rId1"/>
-    <sheet name="Week 20-21" sheetId="8" r:id="rId2"/>
+    <sheet name="Week 20-21" sheetId="8" r:id="rId1"/>
+    <sheet name="Week 18-19" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 18-19'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>MORNING</t>
   </si>
@@ -173,6 +173,58 @@
   </si>
   <si>
     <t>RA系统部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58测试负载确认</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机下linux无纸化部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAProxy网上查找资料安装搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAProxy处理搭建问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融信托测试系统搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融信托测试系统搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58处理客户签名打叉的问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58问题处理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技无纸化方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加关于产品基本概念的会</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技无纸化方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行无纸化签署平台疑问解答</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +1060,964 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="47">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="49">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="43">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="44"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="43">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="43"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="44"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="43">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="43">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="43">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="43">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="43">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="43">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="43">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="43">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="43">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="43">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="43">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="43">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1950,13 +2959,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1969,6 +2971,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1978,933 +2987,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="38">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
-WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="30">
-        <v>5</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="47">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="49">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="35" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="35">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="35">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="35">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="35">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="35">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="35">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="43">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="G7" s="35">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="35">
-        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="35">
-        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="35">
-        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="35">
-        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="35">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="35">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="35">
-        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="35">
-        <f t="shared" si="2"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="2"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="35">
-        <f t="shared" si="2"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" si="2"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="35">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="35">
-        <f t="shared" si="2"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="35">
-        <f t="shared" si="2"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="2"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="2"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="35">
-        <f t="shared" si="2"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="G10" s="35">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="35">
-        <f t="shared" si="2"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="2"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="G15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="43">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="43">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="43">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="43">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="43">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="21">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
-WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="7">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="43">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="43">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="43">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="7">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="43">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="7">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="43">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="7">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="43">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="7">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="43">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="15"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>MORNING</t>
   </si>
@@ -225,6 +225,14 @@
   </si>
   <si>
     <t>长沙银行无纸化签署平台疑问解答</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -777,6 +785,8 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1060,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1413,9 @@
         <v>42871</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="G11" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1512,8 +1524,12 @@
         <f>B17</f>
         <v>42872</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
@@ -1987,6 +2003,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1999,13 +2022,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2959,6 +2975,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2971,13 +2994,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>MORNING</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技项目的最终版实施方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行材料补充</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -756,6 +768,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,8 +799,6 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,11 +1098,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1099,14 +1111,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1154,10 +1166,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1168,16 +1180,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1256,7 +1268,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1300,7 +1312,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -1338,7 +1350,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1413,7 +1425,7 @@
         <v>42871</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="44" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="14"/>
@@ -1449,7 +1461,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1471,7 +1483,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1488,7 +1500,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1524,10 +1536,10 @@
         <f>B17</f>
         <v>42872</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="14"/>
@@ -1538,7 +1550,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1553,7 +1565,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -1563,7 +1575,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1582,7 +1594,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1596,7 +1608,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1607,7 +1619,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1626,7 +1638,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1640,14 +1652,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1666,7 +1678,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1676,14 +1688,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1702,7 +1714,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1712,14 +1724,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1755,24 +1767,30 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42877</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="15"/>
+      <c r="C44" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1796,7 +1814,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1806,14 +1824,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1837,7 +1855,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1847,14 +1865,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1873,7 +1891,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1883,14 +1901,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1909,7 +1927,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1919,14 +1937,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1945,7 +1963,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1953,14 +1971,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1979,7 +1997,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1989,27 +2007,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2022,6 +2033,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2049,11 +2067,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2062,14 +2080,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2117,10 +2135,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2131,16 +2149,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2219,7 +2237,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -2259,7 +2277,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2295,7 +2313,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2404,7 +2422,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -2428,7 +2446,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2445,7 +2463,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2491,7 +2509,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -2502,7 +2520,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2510,7 +2528,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2529,7 +2547,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -2539,14 +2557,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2565,7 +2583,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -2575,14 +2593,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2601,7 +2619,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -2611,14 +2629,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2637,7 +2655,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -2647,14 +2665,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2690,7 +2708,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -2706,7 +2724,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -2717,7 +2735,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2741,7 +2759,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -2757,7 +2775,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2768,7 +2786,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2792,7 +2810,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -2808,7 +2826,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -2819,7 +2837,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2838,7 +2856,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -2854,13 +2872,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2879,7 +2897,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -2891,14 +2909,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2917,7 +2935,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -2925,14 +2943,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2951,7 +2969,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -2961,27 +2979,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2994,6 +3005,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>MORNING</t>
   </si>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>长沙银行材料补充</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1082,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1475,9 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -2021,6 +2027,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2033,13 +2046,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2993,6 +2999,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3005,13 +3018,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1282,9 @@
       <c r="D7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="40">
+        <v>1</v>
+      </c>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -2027,13 +2029,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2046,6 +2041,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,13 +3001,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3018,6 +3013,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,9 +1282,7 @@
       <c r="D7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="40">
-        <v>1</v>
-      </c>
+      <c r="E7" s="40"/>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -2029,6 +2027,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2041,13 +2046,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3001,6 +2999,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3013,13 +3018,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1238,7 +1238,9 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
       <c r="G6" s="35" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
@@ -2027,13 +2029,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2046,6 +2041,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,13 +3001,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3018,6 +3013,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,9 +1238,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="G6" s="35" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
@@ -2029,6 +2027,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2041,13 +2046,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3001,6 +2999,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3013,13 +3018,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>MORNING</t>
   </si>
@@ -236,19 +236,23 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>海闻科技项目的最终版实施方案</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载均衡搭建</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙银行材料补充</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行疑问解答</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>haproxy搭建完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化接口demo使用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58预计6月初整体上线，周三测无纸化系统接口</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -686,12 +690,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -802,6 +832,12 @@
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1778,26 +1814,28 @@
         <v>42877</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>50</v>
-      </c>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="45"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
+      <c r="C45" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
     </row>
@@ -2026,14 +2064,8 @@
       <c r="E76" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
+  <mergeCells count="20">
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2046,6 +2078,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,13 +3038,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3018,6 +3050,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>MORNING</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>长银58预计6月初整体上线，周三测无纸化系统接口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -804,6 +808,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,12 +842,6 @@
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,7 +1127,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,11 +1142,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1151,14 +1155,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1206,10 +1210,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1220,16 +1224,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1308,7 +1312,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1352,7 +1356,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1394,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1501,7 +1505,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1525,7 +1529,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1542,7 +1546,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1592,7 +1596,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1607,7 +1611,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -1617,7 +1621,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1636,7 +1640,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1650,7 +1654,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1665,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1680,7 +1684,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1694,14 +1698,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1720,7 +1724,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1730,14 +1734,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1756,7 +1760,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1766,14 +1770,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1809,7 +1813,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1823,19 +1827,21 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="54" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="55"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
     </row>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1868,14 +1874,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1899,7 +1905,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1909,14 +1915,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1935,7 +1941,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1945,14 +1951,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1971,7 +1977,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1981,14 +1987,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2007,7 +2013,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -2015,14 +2021,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2041,7 +2047,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2051,20 +2057,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
@@ -2078,13 +2091,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,11 +2118,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2125,14 +2131,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2180,10 +2186,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2194,16 +2200,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2282,7 +2288,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2358,7 +2364,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2467,7 +2473,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -2491,7 +2497,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2508,7 +2514,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2554,7 +2560,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -2565,7 +2571,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2573,7 +2579,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2592,7 +2598,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -2602,14 +2608,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2628,7 +2634,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -2638,14 +2644,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2664,7 +2670,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -2674,14 +2680,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -2710,14 +2716,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2753,7 +2759,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -2780,7 +2786,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2804,7 +2810,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -2820,7 +2826,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2831,7 +2837,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2855,7 +2861,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -2882,7 +2888,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2901,7 +2907,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -2917,13 +2923,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -2954,14 +2960,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2980,7 +2986,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -2988,14 +2994,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3014,7 +3020,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -3024,20 +3030,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3050,13 +3063,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>MORNING</t>
   </si>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>长银58预计6月初整体上线，周三测无纸化系统接口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -808,17 +804,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1127,7 +1123,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1312,7 +1308,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1356,7 +1352,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -1394,7 +1390,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1505,7 +1501,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1529,7 +1525,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1546,7 +1542,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1596,7 +1592,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1611,7 +1607,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -1621,7 +1617,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1640,7 +1636,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1654,7 +1650,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1665,7 +1661,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1684,7 +1680,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1698,14 +1694,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1724,7 +1720,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1734,14 +1730,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1760,7 +1756,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1770,14 +1766,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1813,7 +1809,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1827,21 +1823,19 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="45" t="s">
+      <c r="B45" s="45"/>
+      <c r="C45" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
     </row>
@@ -1858,13 +1852,15 @@
         <f>B49</f>
         <v>42878</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="11">
+        <v>11</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1874,14 +1870,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1905,7 +1901,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1915,14 +1911,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1941,7 +1937,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1951,14 +1947,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1977,7 +1973,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1987,14 +1983,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2013,7 +2009,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -2021,14 +2017,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2047,7 +2043,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2057,27 +2053,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
@@ -2091,6 +2080,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2288,7 +2284,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -2328,7 +2324,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2364,7 +2360,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2473,7 +2469,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -2497,7 +2493,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2514,7 +2510,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2560,7 +2556,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -2571,7 +2567,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2579,7 +2575,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2598,7 +2594,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -2608,14 +2604,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2634,7 +2630,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -2644,14 +2640,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2670,7 +2666,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -2680,14 +2676,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2706,7 +2702,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -2716,14 +2712,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2759,7 +2755,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -2775,7 +2771,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -2786,7 +2782,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2810,7 +2806,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -2826,7 +2822,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2837,7 +2833,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2861,7 +2857,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -2877,7 +2873,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -2888,7 +2884,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2907,7 +2903,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -2923,13 +2919,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2948,7 +2944,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -2960,14 +2956,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2986,7 +2982,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -2994,14 +2990,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3020,7 +3016,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -3030,27 +3026,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3063,6 +3052,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>MORNING</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>长银58预计6月初整体上线，周三测无纸化系统接口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -804,17 +808,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1123,7 +1127,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1312,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1352,7 +1356,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1394,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1501,7 +1505,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1525,7 +1529,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1542,7 +1546,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1592,7 +1596,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1607,7 +1611,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -1617,7 +1621,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1636,7 +1640,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1650,7 +1654,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1665,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1680,7 +1684,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1694,14 +1698,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1720,7 +1724,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1730,14 +1734,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1756,7 +1760,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1766,14 +1770,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1809,7 +1813,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1823,19 +1827,21 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
     </row>
@@ -1852,15 +1858,13 @@
         <f>B49</f>
         <v>42878</v>
       </c>
-      <c r="C48" s="11">
-        <v>11</v>
-      </c>
+      <c r="C48" s="11"/>
       <c r="D48" s="8"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1870,14 +1874,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1901,7 +1905,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1911,14 +1915,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1937,7 +1941,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1947,14 +1951,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1973,7 +1977,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1983,14 +1987,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2009,7 +2013,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -2017,14 +2021,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2043,7 +2047,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2053,20 +2057,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
@@ -2080,13 +2091,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,7 +2288,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -2324,7 +2328,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2360,7 +2364,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2469,7 +2473,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -2493,7 +2497,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2510,7 +2514,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2556,7 +2560,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -2567,7 +2571,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2575,7 +2579,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2594,7 +2598,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -2604,14 +2608,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2630,7 +2634,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -2640,14 +2644,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2666,7 +2670,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -2676,14 +2680,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2702,7 +2706,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -2712,14 +2716,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2755,7 +2759,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -2771,7 +2775,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -2782,7 +2786,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2806,7 +2810,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -2822,7 +2826,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2833,7 +2837,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2857,7 +2861,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -2873,7 +2877,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -2884,7 +2888,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2903,7 +2907,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -2919,13 +2923,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2944,7 +2948,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -2956,14 +2960,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2982,7 +2986,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -2990,14 +2994,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3016,7 +3020,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -3026,20 +3030,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3052,13 +3063,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junnu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 18-19" sheetId="7" r:id="rId1"/>
-    <sheet name="Week 20-21" sheetId="8" r:id="rId2"/>
+    <sheet name="Week 20-21" sheetId="8" r:id="rId1"/>
+    <sheet name="Week 18-19" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 18-19'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>MORNING</t>
   </si>
@@ -95,6 +95,196 @@
   </si>
   <si>
     <t>« Every Monday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品培训</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化接口文档学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统操作测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58消费金融支撑工作</t>
+  </si>
+  <si>
+    <t>长银58消费金融支撑工作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银59消费金融支撑工作</t>
+  </si>
+  <si>
+    <t>长沙银行vtm项目支撑工作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署签章测试系统（linux学习）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58消费金融无纸化系统部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行vtm项目支撑工作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长沙银行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vtm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目系统升级部署</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机linux学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA系统部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58测试负载确认</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机下linux无纸化部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAProxy网上查找资料安装搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAProxy处理搭建问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融信托测试系统搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融信托测试系统搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58处理客户签名打叉的问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58问题处理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技无纸化方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加关于产品基本概念的会</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技无纸化方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行无纸化签署平台疑问解答</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行材料补充</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技项目的实施方案第二版</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>haproxy负载均衡搭建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口文件标注释</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行申请信用卡项目投标</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏协通智联科技有限公司公积金项目设备调试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础设施学习</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口文件注释修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏协通智联科技有限公司公积金项目现场交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏协通智联科技有限公司公积金项目</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +300,7 @@
     <numFmt numFmtId="180" formatCode="&quot;Week &quot;00"/>
     <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +426,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -526,24 +723,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
       <top style="hair">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="hair">
         <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
@@ -554,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -633,8 +832,16 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,11 +1170,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -976,20 +1183,20 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="38">
         <f>C3</f>
-        <v>42856</v>
+        <v>42870</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>20</v>
@@ -1011,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="21">
-        <v>42856</v>
+        <v>42870</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="23">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
 WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="26"/>
@@ -1031,10 +1238,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1045,16 +1252,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1095,7 +1302,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <f>B7</f>
-        <v>42856</v>
+        <v>42870</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
@@ -1133,12 +1340,16 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="47">
         <f>E2</f>
-        <v>42856</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="40"/>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1173,8 +1384,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
       <c r="G8" s="35">
@@ -1209,7 +1422,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1281,10 +1494,12 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <f>B12</f>
-        <v>42857</v>
+        <v>42871</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="G11" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1318,13 +1533,17 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="B12" s="47">
         <f>B7+1</f>
-        <v>42857</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="39"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -1336,7 +1555,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1353,7 +1572,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1387,10 +1606,14 @@
       <c r="A16" s="2"/>
       <c r="B16" s="7">
         <f>B17</f>
-        <v>42858</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
@@ -1399,26 +1622,32 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="47">
         <f>B12+1</f>
-        <v>42858</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="40"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="15"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1429,7 +1658,7 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <f>B22</f>
-        <v>42859</v>
+        <v>42873</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="8"/>
@@ -1437,24 +1666,32 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="47">
         <f>B17+1</f>
-        <v>42859</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1465,7 +1702,7 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
         <f>B27</f>
-        <v>42860</v>
+        <v>42874</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
@@ -1473,24 +1710,28 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="47">
         <f>B22+1</f>
-        <v>42860</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1501,7 +1742,7 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <f>B32</f>
-        <v>42861</v>
+        <v>42875</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="8"/>
@@ -1509,9 +1750,9 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="47">
         <f>B27+1</f>
-        <v>42861</v>
+        <v>42875</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
@@ -1519,14 +1760,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1537,7 +1778,7 @@
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <f>B37</f>
-        <v>42862</v>
+        <v>42876</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="8"/>
@@ -1545,9 +1786,9 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="47">
         <f>B32+1</f>
-        <v>42862</v>
+        <v>42876</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -1555,14 +1796,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1577,20 +1818,20 @@
       </c>
       <c r="C41" s="21">
         <f>C3+7</f>
-        <v>42863</v>
+        <v>42877</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="23">
         <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
 WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7">
         <f>B44</f>
-        <v>42863</v>
+        <v>42877</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="8"/>
@@ -1598,24 +1839,29 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="47">
         <f>B37+1</f>
-        <v>42863</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="15"/>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="41"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1631,7 +1877,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="7">
         <f>B49</f>
-        <v>42864</v>
+        <v>42878</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="8"/>
@@ -1639,24 +1885,28 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="47">
         <f>B44+1</f>
-        <v>42864</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="15"/>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="15"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1672,7 +1922,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="7">
         <f>B54</f>
-        <v>42865</v>
+        <v>42879</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="8"/>
@@ -1680,24 +1930,28 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="47">
         <f>B49+1</f>
-        <v>42865</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="41"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1708,7 +1962,7 @@
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7">
         <f>B59</f>
-        <v>42866</v>
+        <v>42880</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="8"/>
@@ -1716,24 +1970,32 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="47">
         <f>B54+1</f>
-        <v>42866</v>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="42"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
+      <c r="D61" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1742,7 +2004,7 @@
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7">
         <f>B64</f>
-        <v>42867</v>
+        <v>42881</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="8"/>
@@ -1750,24 +2012,28 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="47">
         <f>B59+1</f>
-        <v>42867</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1778,7 +2044,7 @@
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7">
         <f>B69</f>
-        <v>42868</v>
+        <v>42882</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
@@ -1786,22 +2052,26 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="47">
         <f>B64+1</f>
-        <v>42868</v>
-      </c>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="45"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="9"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1812,7 +2082,7 @@
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7">
         <f>B74</f>
-        <v>42869</v>
+        <v>42883</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="8"/>
@@ -1820,9 +2090,9 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="47">
         <f>B69+1</f>
-        <v>42869</v>
+        <v>42883</v>
       </c>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
@@ -1830,27 +2100,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
+  <mergeCells count="25">
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -1863,6 +2126,991 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42856</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42856</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="51">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="53">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42856</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="47">
+        <f>E2</f>
+        <v>42856</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="48"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42857</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="47">
+        <f>B7+1</f>
+        <v>42857</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="47"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="48"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42858</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="47">
+        <f>B12+1</f>
+        <v>42858</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42859</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="47">
+        <f>B17+1</f>
+        <v>42859</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42860</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="47">
+        <f>B22+1</f>
+        <v>42860</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42861</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="47">
+        <f>B27+1</f>
+        <v>42861</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42862</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="47">
+        <f>B32+1</f>
+        <v>42862</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42863</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42863</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="47">
+        <f>B37+1</f>
+        <v>42863</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42864</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="47">
+        <f>B44+1</f>
+        <v>42864</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42865</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="47">
+        <f>B49+1</f>
+        <v>42865</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42866</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="47">
+        <f>B54+1</f>
+        <v>42866</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="39"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42867</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="47">
+        <f>B59+1</f>
+        <v>42867</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42868</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="47">
+        <f>B64+1</f>
+        <v>42868</v>
+      </c>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42869</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="47">
+        <f>B69+1</f>
+        <v>42869</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1872,22 +3120,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Week 20-21" sheetId="8" r:id="rId1"/>
     <sheet name="Week 18-19" sheetId="7" r:id="rId2"/>
+    <sheet name="22-23" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 18-19'!$B$2:$E$39</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>MORNING</t>
   </si>
@@ -285,6 +286,18 @@
   </si>
   <si>
     <t>江苏协通智联科技有限公司公积金项目</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>pki学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle、redhat安装应用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技项目实施方案</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -836,12 +849,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,6 +877,12 @@
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -1170,11 +1183,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1183,14 +1196,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1238,10 +1251,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1252,16 +1265,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1340,7 +1353,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1384,7 +1397,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1435,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1533,7 +1546,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1555,7 +1568,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1572,7 +1585,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1622,7 +1635,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1637,7 +1650,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -1647,7 +1660,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1666,7 +1679,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1680,7 +1693,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1691,7 +1704,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1710,7 +1723,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1724,14 +1737,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1750,7 +1763,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1760,14 +1773,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1786,7 +1799,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1796,14 +1809,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1839,7 +1852,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1852,7 +1865,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39" t="s">
         <v>49</v>
       </c>
@@ -1861,7 +1874,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1885,7 +1898,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1899,14 +1912,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1930,7 +1943,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1944,14 +1957,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1970,28 +1983,28 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42880</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="54" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10" t="s">
         <v>55</v>
@@ -2012,28 +2025,28 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42881</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="54" t="s">
         <v>57</v>
       </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2052,26 +2065,26 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42882</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="45"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2090,7 +2103,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2100,20 +2113,33 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2126,19 +2152,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,11 +2179,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2179,14 +2192,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2234,10 +2247,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2248,16 +2261,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2336,7 +2349,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -2376,7 +2389,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2412,7 +2425,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2521,7 +2534,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -2545,7 +2558,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2562,7 +2575,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2608,7 +2621,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -2619,7 +2632,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2627,7 +2640,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2646,7 +2659,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -2656,14 +2669,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2682,7 +2695,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -2692,14 +2705,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2718,7 +2731,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -2728,14 +2741,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2754,7 +2767,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -2764,14 +2777,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2807,7 +2820,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -2823,7 +2836,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -2834,7 +2847,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2858,7 +2871,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -2874,7 +2887,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2885,7 +2898,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2909,7 +2922,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -2925,7 +2938,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -2936,7 +2949,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2955,7 +2968,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -2971,13 +2984,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2996,7 +3009,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -3008,14 +3021,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3034,7 +3047,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -3042,14 +3055,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3068,7 +3081,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -3078,20 +3091,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3104,13 +3124,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3120,4 +3133,946 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="49">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="51">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="45">
+        <f>E2</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="45">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="45">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="45">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="45">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="45">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="45">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="45">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="45">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="45">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="45">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="45">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="45">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junnu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 20-21" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>MORNING</t>
   </si>
@@ -298,6 +298,10 @@
   </si>
   <si>
     <t>海闻科技项目实施方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同系统不同数据库下无纸化安装</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -761,12 +765,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -849,6 +890,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,11 +925,10 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -1183,11 +1229,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1196,14 +1242,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1251,10 +1297,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1265,16 +1311,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1353,7 +1399,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1397,7 +1443,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -1435,7 +1481,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1546,7 +1592,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1568,7 +1614,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1585,7 +1631,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1635,7 +1681,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1650,7 +1696,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -1660,7 +1706,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1679,7 +1725,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1693,7 +1739,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1704,7 +1750,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1723,7 +1769,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1737,14 +1783,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1763,7 +1809,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1773,14 +1819,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1799,7 +1845,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1809,14 +1855,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1852,7 +1898,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1865,7 +1911,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39" t="s">
         <v>49</v>
       </c>
@@ -1874,7 +1920,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1898,7 +1944,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1912,14 +1958,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1943,7 +1989,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1957,14 +2003,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1983,28 +2029,28 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42880</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10" t="s">
         <v>55</v>
@@ -2025,28 +2071,28 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42881</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="45" t="s">
         <v>57</v>
       </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2065,26 +2111,26 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42882</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="54"/>
+      <c r="D69" s="45"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2103,7 +2149,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2113,33 +2159,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2152,6 +2185,19 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2179,11 +2225,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2192,14 +2238,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2247,10 +2293,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2261,16 +2307,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2349,7 +2395,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -2389,7 +2435,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2425,7 +2471,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2534,7 +2580,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -2558,7 +2604,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2575,7 +2621,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2621,7 +2667,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -2632,7 +2678,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2640,7 +2686,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2659,7 +2705,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -2669,14 +2715,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2695,7 +2741,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -2705,14 +2751,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2731,7 +2777,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -2741,14 +2787,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2767,7 +2813,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -2777,14 +2823,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2820,7 +2866,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -2836,7 +2882,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -2847,7 +2893,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2871,7 +2917,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -2887,7 +2933,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2898,7 +2944,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2922,7 +2968,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -2938,7 +2984,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -2949,7 +2995,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2968,7 +3014,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -2984,13 +3030,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3009,7 +3055,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -3021,14 +3067,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3047,7 +3093,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -3055,14 +3101,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3081,7 +3127,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -3091,27 +3137,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3124,6 +3163,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3139,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3155,11 +3201,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3168,14 +3214,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3223,10 +3269,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3237,16 +3283,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3325,19 +3371,13 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42884</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>61</v>
-      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -3371,7 +3411,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3407,7 +3447,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3516,7 +3556,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42885</v>
       </c>
@@ -3534,7 +3574,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -3551,7 +3591,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3597,7 +3637,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42886</v>
       </c>
@@ -3608,15 +3648,19 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="40"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3629,13 +3673,13 @@
         <f>B22</f>
         <v>42887</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="8"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="58">
         <f>B17+1</f>
         <v>42887</v>
       </c>
@@ -3645,15 +3689,19 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
     </row>
@@ -3671,7 +3719,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42888</v>
       </c>
@@ -3681,14 +3729,18 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3707,7 +3759,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42889</v>
       </c>
@@ -3717,14 +3769,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3743,7 +3795,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42890</v>
       </c>
@@ -3753,14 +3805,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3796,7 +3848,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42891</v>
       </c>
@@ -3805,14 +3857,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3836,7 +3888,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42892</v>
       </c>
@@ -3846,14 +3898,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3877,7 +3929,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42893</v>
       </c>
@@ -3887,14 +3939,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3913,24 +3965,24 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3949,24 +4001,24 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3985,24 +4037,24 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4021,7 +4073,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42897</v>
       </c>
@@ -4031,20 +4083,38 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C60"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="C64:C65"/>
@@ -4052,24 +4122,6 @@
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 20-21" sheetId="8" r:id="rId1"/>
-    <sheet name="Week 18-19" sheetId="7" r:id="rId2"/>
-    <sheet name="22-23" sheetId="9" r:id="rId3"/>
+    <sheet name="22-23" sheetId="9" r:id="rId1"/>
+    <sheet name="Week 20-21" sheetId="8" r:id="rId2"/>
+    <sheet name="Week 18-19" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 18-19'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>MORNING</t>
   </si>
@@ -289,23 +289,39 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>信托行业无纸化方案学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章控件资料学习，demo试用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技电子签章系统方案编写</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行无纸化方案ppt修改，试讲</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行无纸化方案准备</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行无纸化方案讲演</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>pki学习</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>oracle、redhat安装应用</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>海闻科技项目实施方案</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同系统不同数据库下无纸化安装</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>无纸化系统接口使用</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +911,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,7 +1233,959 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="51">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="53">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="47">
+        <f>E2</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="48"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="47">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="47"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="48"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="47">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="58">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="47">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="47">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="47">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="47">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="47">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="47">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="47">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="47">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="47">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="47">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1898,7 +2866,7 @@
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E43" s="14"/>
     </row>
@@ -2211,7 +3179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -3185,952 +4153,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="38">
-        <f>C3</f>
-        <v>42884</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42884</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
-WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>22</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="30">
-        <v>5</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="51">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="53">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <f>B7</f>
-        <v>42884</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="35" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="35">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="35">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="35">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="35">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="35">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="35">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="47">
-        <f>E2</f>
-        <v>42884</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="G7" s="35">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="35">
-        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="35">
-        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="35">
-        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="35">
-        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="35">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="35">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="35">
-        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="35">
-        <f t="shared" si="2"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="2"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="35">
-        <f t="shared" si="2"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" si="2"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="35">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="35">
-        <f t="shared" si="2"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="35">
-        <f t="shared" si="2"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="2"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="2"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="35">
-        <f t="shared" si="2"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="G10" s="35">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="35">
-        <f t="shared" si="2"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="2"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f>B12</f>
-        <v>42885</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
-        <f>B7+1</f>
-        <v>42885</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="G15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7">
-        <f>B17</f>
-        <v>42886</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="47">
-        <f>B12+1</f>
-        <v>42886</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
-        <f>B22</f>
-        <v>42887</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="58">
-        <f>B17+1</f>
-        <v>42887</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <f>B27</f>
-        <v>42888</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="47">
-        <f>B22+1</f>
-        <v>42888</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
-        <f>B32</f>
-        <v>42889</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="47">
-        <f>B27+1</f>
-        <v>42889</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <f>B37</f>
-        <v>42890</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="47">
-        <f>B32+1</f>
-        <v>42890</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="21">
-        <f>C3+7</f>
-        <v>42891</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
-WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="7">
-        <f>B44</f>
-        <v>42891</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="47">
-        <f>B37+1</f>
-        <v>42891</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7">
-        <f>B49</f>
-        <v>42892</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="47">
-        <f>B44+1</f>
-        <v>42892</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7">
-        <f>B54</f>
-        <v>42893</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="47">
-        <f>B49+1</f>
-        <v>42893</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="7">
-        <f>B59</f>
-        <v>42894</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="47">
-        <f>B54+1</f>
-        <v>42894</v>
-      </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="7">
-        <f>B64</f>
-        <v>42895</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="47">
-        <f>B59+1</f>
-        <v>42895</v>
-      </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="7">
-        <f>B69</f>
-        <v>42896</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="47">
-        <f>B64+1</f>
-        <v>42896</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="7">
-        <f>B74</f>
-        <v>42897</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="47">
-        <f>B69+1</f>
-        <v>42897</v>
-      </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="15"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>MORNING</t>
   </si>
@@ -322,6 +322,22 @@
   </si>
   <si>
     <t>无纸化系统接口使用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技电子签章方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>pki学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>各行业无纸化方案讲解</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化不同系统不同数据库中间件部署</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -918,6 +934,15 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -941,15 +966,7 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1233,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,11 +1266,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1262,14 +1279,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1317,10 +1334,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1331,16 +1348,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1727,7 +1744,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58">
+      <c r="B22" s="51">
         <f>B17+1</f>
         <v>42887</v>
       </c>
@@ -1741,7 +1758,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39" t="s">
         <v>63</v>
@@ -1750,7 +1767,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="46"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1904,7 +1921,9 @@
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1944,21 +1963,27 @@
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="39"/>
+      <c r="C49" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="47"/>
-      <c r="C50" s="39"/>
+      <c r="C50" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="48"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="59" t="s">
+        <v>70</v>
+      </c>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
     </row>
@@ -1985,21 +2010,27 @@
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="39"/>
+      <c r="C54" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="47"/>
-      <c r="C55" s="39"/>
+      <c r="C55" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="48"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="59" t="s">
+        <v>70</v>
+      </c>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
     </row>
@@ -2021,21 +2052,27 @@
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="C59" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="49"/>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="47"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="50"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="48"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="59" t="s">
+        <v>70</v>
+      </c>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
     </row>
@@ -2057,21 +2094,27 @@
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="C64" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="49"/>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="47"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
+      <c r="C65" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="50"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="48"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="59" t="s">
+        <v>70</v>
+      </c>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
     </row>
@@ -2093,15 +2136,15 @@
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="47"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,14 +2191,13 @@
       <c r="E76" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
+  <mergeCells count="23">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B17:B19"/>
@@ -2167,13 +2209,12 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2201,11 +2242,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2214,14 +2255,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2269,10 +2310,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2283,16 +2324,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3007,10 +3048,10 @@
         <f>B54+1</f>
         <v>42880</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="49" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="15"/>
@@ -3018,8 +3059,8 @@
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="47"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3049,10 +3090,10 @@
         <f>B59+1</f>
         <v>42881</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D64" s="49" t="s">
         <v>57</v>
       </c>
       <c r="E64" s="15"/>
@@ -3060,8 +3101,8 @@
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="47"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3089,17 +3130,17 @@
         <f>B64+1</f>
         <v>42882</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="56"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="47"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3147,19 +3188,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3172,6 +3200,19 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3199,11 +3240,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3212,14 +3253,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3267,10 +3308,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3281,16 +3322,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4125,13 +4166,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4144,6 +4178,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
   <si>
     <t>MORNING</t>
   </si>
@@ -928,19 +928,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -966,7 +958,15 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,11 +1266,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1279,14 +1279,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1334,10 +1334,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1348,16 +1348,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="48">
         <f>E2</f>
         <v>42884</v>
       </c>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1512,7 +1512,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1621,7 +1621,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="48">
         <f>B7+1</f>
         <v>42885</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1656,7 +1656,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="48">
         <f>B12+1</f>
         <v>42886</v>
       </c>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="39" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="51">
+      <c r="B22" s="59">
         <f>B17+1</f>
         <v>42887</v>
       </c>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="51"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39" t="s">
         <v>63</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="46"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="48">
         <f>B22+1</f>
         <v>42888</v>
       </c>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="39" t="s">
         <v>66</v>
       </c>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="48">
         <f>B27+1</f>
         <v>42889</v>
       </c>
@@ -1838,14 +1838,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="48">
         <f>B32+1</f>
         <v>42890</v>
       </c>
@@ -1874,14 +1874,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1917,27 +1917,33 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="48">
         <f>B37+1</f>
         <v>42891</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="40"/>
+      <c r="D44" s="39" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
+      <c r="D45" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,32 +1965,38 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="48">
         <f>B44+1</f>
         <v>42892</v>
       </c>
       <c r="C49" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="59" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2006,32 +2018,38 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="48">
         <f>B49+1</f>
         <v>42893</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="59" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2048,32 +2066,38 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="48">
         <f>B54+1</f>
         <v>42894</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="49"/>
+      <c r="D59" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="50"/>
+      <c r="D60" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="59" t="s">
+      <c r="B61" s="49"/>
+      <c r="C61" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2090,32 +2114,38 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="48">
         <f>B59+1</f>
         <v>42895</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="50"/>
+      <c r="D65" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="59" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="E66" s="16"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,24 +2162,24 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="48">
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2168,7 +2198,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="48">
         <f>B69+1</f>
         <v>42897</v>
       </c>
@@ -2178,27 +2208,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="D59:D60"/>
+  <mergeCells count="21">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
@@ -2209,12 +2237,12 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2242,11 +2270,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2255,14 +2283,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2310,10 +2338,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2324,16 +2352,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2412,7 +2440,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="48">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -2456,7 +2484,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -2494,7 +2522,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2605,7 +2633,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="48">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -2627,7 +2655,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2644,7 +2672,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2694,7 +2722,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="48">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -2709,7 +2737,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -2719,7 +2747,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2738,7 +2766,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="48">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -2752,7 +2780,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -2763,7 +2791,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2782,7 +2810,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="48">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -2796,14 +2824,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2822,7 +2850,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="48">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -2832,14 +2860,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2858,7 +2886,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="48">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -2868,14 +2896,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2913,7 +2941,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="48">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -2926,7 +2954,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="39" t="s">
         <v>49</v>
       </c>
@@ -2935,7 +2963,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2959,7 +2987,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="48">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -2973,14 +3001,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3004,7 +3032,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="48">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -3018,14 +3046,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3044,28 +3072,28 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="48">
         <f>B54+1</f>
         <v>42880</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="57" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10" t="s">
         <v>55</v>
@@ -3086,28 +3114,28 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="48">
         <f>B59+1</f>
         <v>42881</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="57" t="s">
         <v>57</v>
       </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3126,26 +3154,26 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="48">
         <f>B64+1</f>
         <v>42882</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="49"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3164,7 +3192,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="48">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -3174,20 +3202,33 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3200,19 +3241,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3240,11 +3268,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3253,14 +3281,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3308,10 +3336,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3322,16 +3350,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3410,7 +3438,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="48">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -3450,7 +3478,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3486,7 +3514,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3595,7 +3623,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="48">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -3619,7 +3647,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -3636,7 +3664,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3682,7 +3710,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="48">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -3693,7 +3721,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3701,7 +3729,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3720,7 +3748,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="48">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -3730,14 +3758,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3756,7 +3784,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="48">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -3766,14 +3794,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3792,7 +3820,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="48">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -3802,14 +3830,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3828,7 +3856,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="48">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -3838,14 +3866,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3881,7 +3909,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="48">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -3897,7 +3925,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -3908,7 +3936,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3932,7 +3960,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="48">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -3948,7 +3976,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -3959,7 +3987,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3983,7 +4011,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="48">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -3999,7 +4027,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -4010,7 +4038,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4029,7 +4057,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="48">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4045,13 +4073,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4070,7 +4098,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="48">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4082,14 +4110,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4108,7 +4136,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="48">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4116,14 +4144,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4142,7 +4170,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="48">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4152,20 +4180,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4178,13 +4213,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>分组</t>
   </si>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>新员工培训</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>典型行业方案学习并整理成简化版作为案例简介</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -254,6 +250,14 @@
   </si>
   <si>
     <t>无纸化系统接口调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型行业方案学习并整理成简化版作为案例简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型行业方案学习并整理成简化版作为案例简介</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -936,13 +940,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,21 +971,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1374,8 +1378,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1385,13 +1389,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1412,41 +1416,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1495,7 +1499,7 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="28">
         <v>10</v>
@@ -1542,13 +1546,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1569,41 +1573,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1652,19 +1656,19 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="D9" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>61</v>
@@ -1682,7 +1686,7 @@
         <v>61</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1691,6 +1695,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1699,16 +1713,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,13 +1735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1758,41 +1762,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1841,37 +1845,37 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>72</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>73</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1880,13 +1884,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1907,41 +1911,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1990,7 +1994,7 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -2009,11 +2013,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2027,6 +2026,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2050,32 +2054,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2084,8 +2088,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2140,7 +2144,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2160,7 +2164,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2182,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2196,7 +2200,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2216,7 +2220,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2234,7 +2238,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2256,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2272,7 +2276,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2290,7 +2294,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2328,7 +2332,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2348,7 +2352,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2366,7 +2370,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2384,7 +2388,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2404,7 +2408,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2422,7 +2426,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2440,7 +2444,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2460,7 +2464,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2478,7 +2482,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2536,7 +2540,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2556,7 +2560,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2574,7 +2578,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2594,7 +2598,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2612,7 +2616,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2648,7 +2652,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2666,7 +2670,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2684,7 +2688,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2702,7 +2706,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2720,7 +2724,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +2760,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2775,6 +2779,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2785,11 +2794,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junnu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>海闻科技电子签章方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>linux下无纸化系统部署</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -258,6 +254,10 @@
   </si>
   <si>
     <t>典型行业方案学习并整理成简化版作为案例简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">海闻科技电子签章方案 </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -940,14 +940,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,15 +971,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,8 +1378,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1389,13 +1389,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1416,41 +1416,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="28">
         <v>10</v>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1573,41 +1573,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1656,19 +1656,19 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>65</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>61</v>
@@ -1686,7 +1686,7 @@
         <v>61</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1695,16 +1695,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1713,6 +1703,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1725,7 +1725,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1735,13 +1735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1762,41 +1762,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1845,37 +1845,37 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1911,41 +1911,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -2013,6 +2013,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2026,11 +2031,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2054,32 +2054,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2088,8 +2088,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2164,7 +2164,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2220,7 +2220,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2276,7 +2276,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2352,7 +2352,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2408,7 +2408,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2464,7 +2464,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2560,7 +2560,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2598,7 +2598,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2779,11 +2779,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2794,6 +2789,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -940,13 +940,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,21 +971,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1379,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1389,19 +1389,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1416,41 +1416,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,5,29)</f>
-        <v>42884</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="34">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
-        <v>42885</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>42892</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42886</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+        <v>42893</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+        <v>42894</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+        <v>42895</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+        <v>42896</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42890</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1501,64 +1501,56 @@
       <c r="A4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="28">
-        <v>10</v>
-      </c>
-      <c r="C4" s="28">
-        <v>2</v>
-      </c>
-      <c r="D4" s="28">
-        <v>3</v>
-      </c>
-      <c r="E4" s="28">
-        <v>4</v>
-      </c>
-      <c r="F4" s="28">
-        <v>5</v>
-      </c>
-      <c r="G4" s="28">
-        <v>6</v>
-      </c>
-      <c r="H4" s="28">
-        <v>7</v>
-      </c>
-      <c r="I4" s="28">
-        <v>8</v>
-      </c>
-      <c r="J4" s="28">
-        <v>9</v>
-      </c>
-      <c r="K4" s="28">
-        <v>10</v>
-      </c>
-      <c r="L4" s="28">
-        <v>11</v>
-      </c>
-      <c r="M4" s="28">
-        <v>12</v>
-      </c>
-      <c r="N4" s="28">
-        <v>13</v>
-      </c>
-      <c r="O4" s="28">
-        <v>14</v>
-      </c>
+      <c r="B4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1573,41 +1565,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
-        <v>42891</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+        <v>42898</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42892</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+        <v>42899</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42893</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+        <v>42900</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42894</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+        <v>42901</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42895</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+        <v>42902</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42896</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+        <v>42903</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42897</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1659,34 +1651,34 @@
         <v>65</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1695,6 +1687,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1703,19 +1705,10 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1725,7 +1718,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1735,13 +1728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1762,41 +1755,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1847,36 +1840,16 @@
       <c r="A4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -1884,13 +1857,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1911,41 +1884,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -2013,11 +1986,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2031,6 +1999,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2054,32 +2027,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2088,8 +2061,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2144,7 +2117,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2164,7 +2137,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2155,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +2173,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2220,7 +2193,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2238,7 +2211,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2256,7 +2229,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2276,7 +2249,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2267,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2305,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2352,7 +2325,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2370,7 +2343,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2388,7 +2361,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2408,7 +2381,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2426,7 +2399,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2444,7 +2417,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2464,7 +2437,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2482,7 +2455,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2540,7 +2513,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2560,7 +2533,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2578,7 +2551,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2598,7 +2571,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2616,7 +2589,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2634,7 +2607,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2625,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2670,7 +2643,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2688,7 +2661,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2706,7 +2679,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2697,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2742,7 +2715,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2760,7 +2733,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2779,6 +2752,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2789,11 +2767,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="newest" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
   <si>
     <t>分组</t>
   </si>
@@ -258,6 +258,45 @@
   </si>
   <si>
     <t xml:space="preserve">海闻科技电子签章方案 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行标书修改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux下无纸化系统部署（解决本地网页及数据库管理工具无法访问虚拟机数据库的问题）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行无纸化项目标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋城银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋城银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施方案ppt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统接口调用</t>
+  </si>
+  <si>
+    <t>实施方案讲解</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -940,14 +979,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,15 +1010,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,9 +1416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1389,13 +1428,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1416,41 +1455,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1538,13 +1577,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1565,41 +1604,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1651,7 +1690,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>67</v>
@@ -1687,16 +1726,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1705,6 +1734,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1716,9 +1755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4:O4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1728,13 +1767,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1755,41 +1794,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1840,16 +1879,36 @@
       <c r="A4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -1857,13 +1916,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1884,41 +1943,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1969,16 +2028,36 @@
       <c r="A9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -1986,6 +2065,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1999,11 +2083,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,32 +2106,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2061,8 +2140,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2196,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2137,7 +2216,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2234,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2252,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2193,7 +2272,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2211,7 +2290,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2229,7 +2308,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2249,7 +2328,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2267,7 +2346,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2384,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2325,7 +2404,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2343,7 +2422,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2440,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2381,7 +2460,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2399,7 +2478,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2417,7 +2496,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2437,7 +2516,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2455,7 +2534,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2513,7 +2592,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2533,7 +2612,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2551,7 +2630,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2571,7 +2650,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2589,7 +2668,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2607,7 +2686,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2625,7 +2704,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2643,7 +2722,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2661,7 +2740,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2679,7 +2758,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2697,7 +2776,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2715,7 +2794,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2812,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2752,11 +2831,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2767,6 +2841,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
   <si>
     <t>分组</t>
   </si>
@@ -297,6 +297,10 @@
   </si>
   <si>
     <t>实施方案讲解</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -979,13 +983,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,21 +1014,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1428,13 +1432,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1455,41 +1459,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1577,13 +1581,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1604,41 +1608,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1726,6 +1730,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1734,16 +1748,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,8 +1760,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1767,13 +1771,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1794,41 +1798,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1916,13 +1920,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1943,41 +1947,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -2058,18 +2062,15 @@
       <c r="K9" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="28"/>
+      <c r="L9" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2083,6 +2084,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,32 +2112,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2140,8 +2146,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2202,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2216,7 +2222,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2240,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2258,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2272,7 +2278,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2296,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2308,7 +2314,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2328,7 +2334,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2346,7 +2352,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2390,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2404,7 +2410,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2422,7 +2428,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2440,7 +2446,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2460,7 +2466,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2478,7 +2484,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2496,7 +2502,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2516,7 +2522,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2534,7 +2540,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2592,7 +2598,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2612,7 +2618,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2630,7 +2636,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2650,7 +2656,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2668,7 +2674,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2686,7 +2692,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2704,7 +2710,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2722,7 +2728,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2740,7 +2746,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2758,7 +2764,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2776,7 +2782,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2794,7 +2800,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2812,7 +2818,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2831,6 +2837,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2841,11 +2852,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="1"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="newest" sheetId="6" r:id="rId1"/>
-    <sheet name="newest (2)" sheetId="7" r:id="rId2"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="newest" sheetId="6" r:id="rId2"/>
+    <sheet name="newest（3）" sheetId="8" r:id="rId3"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
   <si>
     <t>分组</t>
   </si>
@@ -203,37 +204,143 @@
     <t>人员</t>
   </si>
   <si>
+    <t>延边农商行无纸化（外出）</t>
+  </si>
+  <si>
+    <t>延边农商行无纸化（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型行业方案学习并整理成简化版作为案例简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux下无纸化系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>李军</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>李军</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
+  </si>
+  <si>
+    <t>Linux环境下搭建无纸化系统，自己制作模板完成基本接口的完整调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统安装部署（web logic+oracle）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统接口调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型行业方案学习并整理成简化版作为案例简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型行业方案学习并整理成简化版作为案例简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">海闻科技电子签章方案 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行标书修改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux下无纸化系统部署（解决本地网页及数据库管理工具无法访问虚拟机数据库的问题）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行无纸化项目标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋城银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋城银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施方案ppt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统接口调用</t>
+  </si>
+  <si>
+    <t>实施方案讲解</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux环境下搭建无纸化系统，自己制作模板完成基本接口的完整调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>上午</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>延边农商行无纸化（外出）</t>
-  </si>
-  <si>
-    <t>延边农商行无纸化（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>典型行业方案学习并整理成简化版作为案例简介</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux下无纸化系统部署</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>李军</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>李军</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
-  </si>
-  <si>
-    <t>Linux环境下搭建无纸化系统，自己制作模板完成基本接口的完整调用</t>
+    <t>柜面无纸化业务操作视频拍摄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化实施方案ppt制作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化测试系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新员工培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化实施方案练习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化实施方案讲演</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻RA项目支撑</t>
+  </si>
+  <si>
+    <t>海闻RA项目支撑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己制作模板完成无纸化系统基本接口的完整调用</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -241,66 +348,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化系统安装部署（web logic+oracle）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化系统接口调用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>典型行业方案学习并整理成简化版作为案例简介</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>典型行业方案学习并整理成简化版作为案例简介</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">海闻科技电子签章方案 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>百信银行标书修改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux下无纸化系统部署（解决本地网页及数据库管理工具无法访问虚拟机数据库的问题）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈尔滨银行无纸化项目标书</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋城银行无纸化交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋城银行无纸化交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化柜面DEMO和移动营销DEMO的安装和演示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施方案ppt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化系统接口调用</t>
-  </si>
-  <si>
-    <t>实施方案讲解</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +360,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +522,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -880,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,14 +1044,26 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,14 +1080,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1421,8 +1491,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9:K9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1432,19 +1502,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1456,87 +1526,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="B2" s="37">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+        <v>42899</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+        <v>42900</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+        <v>42901</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+        <v>42902</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+        <v>42903</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="34"/>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1548,31 +1618,31 @@
         <v>74</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1581,19 +1651,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1605,87 +1675,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="37">
         <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+        <v>42905</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+        <v>42906</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+        <v>42907</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+        <v>42908</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+        <v>42909</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+        <v>42910</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="34"/>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1694,7 +1764,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>67</v>
@@ -1712,365 +1782,31 @@
         <v>69</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="34">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="34">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2084,11 +1820,345 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="37">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,6 +2167,345 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="47" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="37">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="47" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2112,32 +2521,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2146,8 +2555,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2202,7 +2611,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2222,7 +2631,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2240,7 +2649,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2667,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2278,7 +2687,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2296,7 +2705,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2314,7 +2723,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2334,7 +2743,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2352,7 +2761,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2390,7 +2799,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2410,7 +2819,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2428,7 +2837,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2446,7 +2855,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2466,7 +2875,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2484,7 +2893,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2502,7 +2911,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2522,7 +2931,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2540,7 +2949,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2598,7 +3007,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2618,7 +3027,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2636,7 +3045,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2656,7 +3065,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2674,7 +3083,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2692,7 +3101,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2710,7 +3119,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2728,7 +3137,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2746,7 +3155,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2764,7 +3173,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2782,7 +3191,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2800,7 +3209,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +3227,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2837,11 +3246,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2852,6 +3256,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
   <si>
     <t>分组</t>
   </si>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>柜面无纸化业务操作视频拍摄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>无纸化实施方案ppt制作</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -349,6 +345,14 @@
   </si>
   <si>
     <t>无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly schedule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">柜面无纸化业务操作视频拍摄 </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1047,13 +1051,34 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,27 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1502,13 +1506,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1526,7 +1530,7 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="37">
@@ -1566,7 +1570,7 @@
       <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
@@ -1651,13 +1655,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1675,7 +1679,7 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="37">
@@ -1715,7 +1719,7 @@
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1802,11 +1806,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1820,6 +1819,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1843,13 +1847,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1867,7 +1871,7 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="37">
@@ -1907,7 +1911,7 @@
       <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1992,13 +1996,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2016,7 +2020,7 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="37">
@@ -2056,7 +2060,7 @@
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2141,6 +2145,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2149,16 +2163,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2171,7 +2175,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2181,13 +2185,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2205,7 +2209,7 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="37">
@@ -2245,7 +2249,7 @@
       <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="34" t="s">
         <v>86</v>
       </c>
@@ -2289,53 +2293,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="47" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="D4" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="I4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="37">
@@ -2393,7 +2397,7 @@
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -2437,49 +2441,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="47" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="46" t="s">
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="46" t="s">
+      <c r="K9" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="A6:E6"/>
@@ -2496,8 +2502,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2521,32 +2525,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="39"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2555,8 +2559,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2615,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2631,7 +2635,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2649,7 +2653,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2671,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2687,7 +2691,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2705,7 +2709,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2723,7 +2727,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2743,7 +2747,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2761,7 +2765,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2803,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2819,7 +2823,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2837,7 +2841,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2855,7 +2859,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2875,7 +2879,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2893,7 +2897,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2911,7 +2915,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2931,7 +2935,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +2953,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3007,7 +3011,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3027,7 +3031,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3045,7 +3049,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3065,7 +3069,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3083,7 +3087,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3101,7 +3105,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3119,7 +3123,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3155,7 +3159,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3173,7 +3177,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3191,7 +3195,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3209,7 +3213,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3227,7 +3231,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3246,6 +3250,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3256,11 +3265,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -352,7 +352,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">柜面无纸化业务操作视频拍摄 </t>
+    <t>柜面无纸化业务操作视频拍摄</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1066,6 +1066,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,15 +1088,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1806,6 +1806,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1819,11 +1824,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,16 +2145,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2163,6 +2153,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2484,16 +2484,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
@@ -2502,6 +2492,16 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2525,32 +2525,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="46"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2559,8 +2559,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2635,7 +2635,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2691,7 +2691,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2747,7 +2747,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2823,7 +2823,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2879,7 +2879,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2915,7 +2915,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2935,7 +2935,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3031,7 +3031,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3069,7 +3069,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3141,7 +3141,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3250,11 +3250,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3265,6 +3260,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="2"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="newest (2)" sheetId="7" r:id="rId1"/>
     <sheet name="newest" sheetId="6" r:id="rId2"/>
     <sheet name="newest（3）" sheetId="8" r:id="rId3"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="newest（4）" sheetId="9" r:id="rId4"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
   <si>
     <t>分组</t>
   </si>
@@ -344,15 +345,51 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Weekly schedule</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>柜面无纸化业务操作视频拍摄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证技术规范划分等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT部署，证书申请接口调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写RA部署手册</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻RA项目支撑（时间待定，外出），无纸化接口demo自己编写调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门会议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻RA项目支撑（时间待定，外出），无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻RA项目支撑（时间待定，外出）无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻RA项目支撑（时间待定，外出）无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻RA项目支撑（时间待定，外出）无纸化解决方案PPT修改</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -945,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1094,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,6 +1106,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,21 +1128,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,13 +1546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1530,47 +1570,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
@@ -1655,13 +1695,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1679,47 +1719,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1806,11 +1846,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1824,6 +1859,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1847,13 +1887,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1871,47 +1911,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1996,13 +2036,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2020,47 +2060,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2145,6 +2185,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2153,16 +2203,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2185,13 +2225,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2209,47 +2249,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <f>DATE(2017,6,19)</f>
         <v>42905</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42906</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42907</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42908</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42909</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42910</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42911</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="34" t="s">
         <v>86</v>
       </c>
@@ -2298,7 +2338,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>87</v>
@@ -2333,13 +2373,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2357,47 +2397,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42913</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42914</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42915</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42916</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42917</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42918</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -2470,10 +2510,10 @@
         <v>94</v>
       </c>
       <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>96</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>84</v>
@@ -2484,6 +2524,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
@@ -2499,9 +2542,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2510,6 +2550,343 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2525,32 +2902,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2559,8 +2936,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2615,7 +2992,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2635,7 +3012,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +3030,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2671,7 +3048,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2691,7 +3068,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2709,7 +3086,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2727,7 +3104,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2747,7 +3124,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2765,7 +3142,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2803,7 +3180,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2823,7 +3200,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2841,7 +3218,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2859,7 +3236,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2879,7 +3256,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2897,7 +3274,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2915,7 +3292,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2935,7 +3312,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +3330,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3011,7 +3388,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3031,7 +3408,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3049,7 +3426,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3069,7 +3446,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3087,7 +3464,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3105,7 +3482,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3123,7 +3500,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3141,7 +3518,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3159,7 +3536,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3177,7 +3554,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3195,7 +3572,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3213,7 +3590,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3231,7 +3608,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3250,6 +3627,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3260,11 +3642,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -373,10 +373,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>部门会议</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>海闻RA项目支撑（时间待定，外出），无纸化解决方案从系统架构、功能、司法实践的角度细化方案讲解内容</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -390,6 +386,10 @@
   </si>
   <si>
     <t>海闻RA项目支撑（时间待定，外出）无纸化解决方案PPT修改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">部门会议 </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1106,6 +1106,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,15 +1128,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1846,6 +1846,1021 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1871,1021 +2886,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
@@ -2902,32 +2902,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2936,8 +2936,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3012,7 +3012,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3068,7 +3068,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3124,7 +3124,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3200,7 +3200,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3256,7 +3256,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3312,7 +3312,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3408,7 +3408,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3446,7 +3446,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3627,11 +3627,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3642,6 +3637,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="3"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="newest (2)" sheetId="7" r:id="rId1"/>
     <sheet name="newest" sheetId="6" r:id="rId2"/>
     <sheet name="newest（3）" sheetId="8" r:id="rId3"/>
     <sheet name="newest（4）" sheetId="9" r:id="rId4"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="newest（5）" sheetId="10" r:id="rId5"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="109">
   <si>
     <t>分组</t>
   </si>
@@ -390,6 +391,10 @@
   </si>
   <si>
     <t xml:space="preserve">部门会议 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">无纸化实施方案讲演 </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,6 +1102,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,6 +1114,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,21 +1136,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1546,13 +1554,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1570,47 +1578,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
@@ -1695,13 +1703,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1719,47 +1727,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1843,6 +1851,1021 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1871,351 +2894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2225,19 +2909,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2249,143 +2933,123 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="39">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>89</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2397,87 +3061,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="38"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2485,382 +3149,33 @@
       <c r="A9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2869,16 +3184,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2886,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2902,32 +3207,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2936,8 +3241,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +3297,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3012,7 +3317,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3335,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3048,7 +3353,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3068,7 +3373,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3086,7 +3391,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3104,7 +3409,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3124,7 +3429,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3447,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +3485,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3200,7 +3505,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3218,7 +3523,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3236,7 +3541,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3256,7 +3561,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3579,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3292,7 +3597,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3312,7 +3617,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3330,7 +3635,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3388,7 +3693,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3408,7 +3713,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3426,7 +3731,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3446,7 +3751,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3464,7 +3769,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3482,7 +3787,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3500,7 +3805,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3518,7 +3823,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3536,7 +3841,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3554,7 +3859,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +3877,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3590,7 +3895,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3608,7 +3913,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3627,6 +3932,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3637,11 +3947,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
   <si>
     <t>分组</t>
   </si>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t xml:space="preserve">无纸化实施方案讲演 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h'h</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1114,6 +1118,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,15 +1140,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1854,6 +1858,1021 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1879,351 +2898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2245,7 +2925,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2261,682 +2941,6 @@
         <v>59</v>
       </c>
       <c r="B2" s="39">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K9" sqref="B9:K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>27</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
@@ -3021,7 +3025,9 @@
       <c r="A4" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="35" t="s">
+        <v>109</v>
+      </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -3166,16 +3172,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3184,6 +3180,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3207,32 +3213,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3241,8 +3247,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3297,7 +3303,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3317,7 +3323,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3335,7 +3341,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3353,7 +3359,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3373,7 +3379,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3391,7 +3397,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3409,7 +3415,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3429,7 +3435,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +3453,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3485,7 +3491,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3505,7 +3511,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3523,7 +3529,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3541,7 +3547,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3561,7 +3567,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3579,7 +3585,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3597,7 +3603,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3617,7 +3623,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3635,7 +3641,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3693,7 +3699,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3713,7 +3719,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3731,7 +3737,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3751,7 +3757,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3769,7 +3775,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3787,7 +3793,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3805,7 +3811,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3823,7 +3829,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3841,7 +3847,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3859,7 +3865,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3877,7 +3883,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3895,7 +3901,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +3919,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3932,11 +3938,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3947,6 +3948,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="120">
   <si>
     <t>分组</t>
   </si>
@@ -398,7 +398,46 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>h'h</t>
+    <t>海闻RA项目支撑（时间待定，外出），无纸化接口demo自己编写调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云证通+无纸化解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云证通+无纸化解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百瑞信托接口联调</t>
+  </si>
+  <si>
+    <t>百瑞信托接口联调</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA实施ppt制作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统部署PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统部署PPT试讲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部学习交流会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化无纸化售前PPT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2536,9 +2575,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
@@ -2554,6 +2590,9 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2565,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2837,7 +2876,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>102</v>
@@ -3026,17 +3065,35 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
       <c r="N4" s="35"/>
@@ -3155,16 +3212,36 @@
       <c r="A9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -406,10 +406,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>云证通+无纸化解决方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>百瑞信托接口联调</t>
   </si>
   <si>
@@ -438,6 +434,10 @@
   </si>
   <si>
     <t>细化无纸化售前PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">云证通+无纸化解决方案 </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1157,6 +1157,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,21 +1179,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1897,6 +1897,1021 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
@@ -1922,1021 +2937,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
@@ -3065,34 +3065,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="G4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>113</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>114</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -3213,34 +3213,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="35" t="s">
+      <c r="H9" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="35" t="s">
+      <c r="I9" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="35" t="s">
-        <v>119</v>
-      </c>
       <c r="K9" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -3249,6 +3249,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3262,11 +3267,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3290,32 +3290,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3324,8 +3324,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3400,7 +3400,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3456,7 +3456,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3512,7 +3512,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3588,7 +3588,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3644,7 +3644,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3700,7 +3700,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3796,7 +3796,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3834,7 +3834,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4015,6 +4015,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4025,11 +4030,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -437,7 +437,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">云证通+无纸化解决方案 </t>
+    <t>云证通+无纸化解决方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1157,6 +1157,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1170,15 +1179,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1897,6 +1897,1021 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1922,1021 +2937,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
@@ -3249,11 +3249,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3267,6 +3262,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3290,32 +3290,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3324,8 +3324,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3400,7 +3400,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3456,7 +3456,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3512,7 +3512,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3588,7 +3588,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3644,7 +3644,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3700,7 +3700,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3796,7 +3796,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3834,7 +3834,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4015,11 +4015,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4030,6 +4025,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="4"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="newest (2)" sheetId="7" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="newest（3）" sheetId="8" r:id="rId3"/>
     <sheet name="newest（4）" sheetId="9" r:id="rId4"/>
     <sheet name="newest（5）" sheetId="10" r:id="rId5"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="newest（6）" sheetId="11" r:id="rId6"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="122">
   <si>
     <t>分组</t>
   </si>
@@ -438,6 +439,14 @@
   </si>
   <si>
     <t>云证通+无纸化解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA部署PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化保险行业应用、电子签章系统部署</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,6 +1150,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1597,13 +1609,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1621,47 +1633,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
@@ -1746,13 +1758,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1770,47 +1782,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1938,13 +1950,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1962,47 +1974,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2087,13 +2099,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2111,47 +2123,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2276,13 +2288,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2300,47 +2312,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,19)</f>
         <v>42905</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42906</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42907</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42908</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42909</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42910</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42911</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="34" t="s">
         <v>86</v>
       </c>
@@ -2424,13 +2436,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2448,47 +2460,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42913</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42914</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42915</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42916</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42917</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42918</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -2575,8 +2587,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="A6:E6"/>
@@ -2593,6 +2603,8 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,13 +2627,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2639,47 +2651,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="37" t="s">
         <v>86</v>
       </c>
@@ -2763,13 +2775,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2787,47 +2799,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="37" t="s">
         <v>2</v>
       </c>
@@ -2941,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2952,13 +2964,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2976,47 +2988,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="38" t="s">
         <v>86</v>
       </c>
@@ -3100,13 +3112,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3124,47 +3136,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -3276,6 +3288,326 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>28</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="40">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
+        <f>SUM(B2+1)</f>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="42"/>
+      <c r="B3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="40">
+        <f>B2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -3290,32 +3622,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3324,8 +3656,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3712,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3400,7 +3732,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3418,7 +3750,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3768,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3456,7 +3788,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3474,7 +3806,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3824,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3512,7 +3844,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3862,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3900,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3588,7 +3920,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3606,7 +3938,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3624,7 +3956,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3644,7 +3976,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3994,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +4012,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3700,7 +4032,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3718,7 +4050,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3776,7 +4108,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3796,7 +4128,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3814,7 +4146,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3834,7 +4166,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3852,7 +4184,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +4202,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3888,7 +4220,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3906,7 +4238,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3924,7 +4256,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3942,7 +4274,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3960,7 +4292,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3978,7 +4310,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3996,7 +4328,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="137">
   <si>
     <t>分组</t>
   </si>
@@ -447,6 +447,65 @@
   </si>
   <si>
     <t>无纸化保险行业应用、电子签章系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保联网络科技有限公司无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>与泛微讨论OA流程需求</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险行业无纸化方案练习</t>
+  </si>
+  <si>
+    <t>保险行业无纸化方案练习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京益高安捷无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用期工作总结</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>年中汇报</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统demo调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统部署PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门例会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化售前PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统demo调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化demo自行编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA和电子签章系统售前资料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA和电子签章系统售前资料</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1169,6 +1228,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,21 +1250,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1909,11 +1968,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1927,6 +1981,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,6 +2307,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2256,16 +2325,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2924,6 +2983,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2937,11 +3001,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3261,6 +3320,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3274,11 +3338,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,7 +3350,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3419,14 +3478,30 @@
       <c r="C4" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="D4" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>128</v>
+      </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
       <c r="N4" s="35"/>
@@ -3546,34 +3621,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -3582,6 +3657,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3595,14 +3675,10 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3622,32 +3698,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="44"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3656,8 +3732,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3712,7 +3788,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3732,7 +3808,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3750,7 +3826,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="47"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3844,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3788,7 +3864,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3806,7 +3882,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3824,7 +3900,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3844,7 +3920,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3862,7 +3938,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3900,7 +3976,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3920,7 +3996,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3938,7 +4014,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3956,7 +4032,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3976,7 +4052,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +4070,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4012,7 +4088,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4032,7 +4108,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4050,7 +4126,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="47"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4108,7 +4184,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4128,7 +4204,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4146,7 +4222,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4166,7 +4242,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="49"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4184,7 +4260,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="49"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4202,7 +4278,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="49"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4220,7 +4296,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="49"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4238,7 +4314,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="49"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4256,7 +4332,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="49"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4274,7 +4350,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4292,7 +4368,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="49"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4310,7 +4386,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="49"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4404,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="49"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4347,6 +4423,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4357,11 +4438,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="5"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="newest (2)" sheetId="7" r:id="rId1"/>
-    <sheet name="newest" sheetId="6" r:id="rId2"/>
-    <sheet name="newest（3）" sheetId="8" r:id="rId3"/>
-    <sheet name="newest（4）" sheetId="9" r:id="rId4"/>
-    <sheet name="newest（5）" sheetId="10" r:id="rId5"/>
-    <sheet name="newest（6）" sheetId="11" r:id="rId6"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="最新7-21" sheetId="12" r:id="rId1"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="newest" sheetId="6" r:id="rId3"/>
+    <sheet name="newest（3）" sheetId="8" r:id="rId4"/>
+    <sheet name="newest（4）" sheetId="9" r:id="rId5"/>
+    <sheet name="newest（5）" sheetId="10" r:id="rId6"/>
+    <sheet name="newest（6）" sheetId="11" r:id="rId7"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
   <si>
     <t>分组</t>
   </si>
@@ -442,70 +443,140 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>无纸化保险行业应用、电子签章系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保联网络科技有限公司无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>与泛微讨论OA流程需求</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险行业无纸化方案练习</t>
+  </si>
+  <si>
+    <t>保险行业无纸化方案练习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京益高安捷无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用期工作总结</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>年中汇报</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统demo调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统部署PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门例会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化售前PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统demo调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化demo自行编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA和电子签章系统售前资料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA和电子签章系统售前资料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>RA部署PPT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化保险行业应用、电子签章系统部署</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>保联网络科技有限公司无纸化交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>与泛微讨论OA流程需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险行业无纸化方案练习</t>
-  </si>
-  <si>
-    <t>保险行业无纸化方案练习</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京益高安捷无纸化交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用期工作总结</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>年中汇报</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子签章系统demo调用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子签章系统部署PPT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门例会</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>细化售前PPT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子签章系统demo调用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化demo自行编写</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA和电子签章系统售前资料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA和电子签章系统售前资料</t>
+    <t>拉通会，梳理RA部署以及配置参数的含义</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城国瑞证券交流准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城国瑞证券交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越联合无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越联合无纸化交流准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城国瑞证券需求讨论</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城国瑞证券无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城国瑞证券无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA需求方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉通会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+RA售前方案PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+复合签章接口多场景的代码改动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+无纸化售前套路总结</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+无纸化售前套路总结</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+无纸化接口自行处理，编写实例</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+根据拉通会的交流情况，学习其他产品</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,6 +1290,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,6 +1302,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1241,15 +1324,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1656,6 +1730,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>29</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42934</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42935</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42936</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42937</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42938</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="43"/>
+      <c r="B3" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42940</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42941</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42942</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42943</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42944</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42945</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C14" sqref="C14"/>
@@ -1668,13 +2079,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1692,47 +2103,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
@@ -1817,13 +2228,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1841,47 +2252,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1965,6 +2376,1021 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="43"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="43"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1993,351 +3419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2347,19 +3434,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2371,123 +3458,123 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="41">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -2495,19 +3582,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2519,87 +3606,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2608,373 +3695,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2983,11 +3731,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3001,6 +3744,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,7 +3756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3023,19 +3771,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3047,87 +3795,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="41">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3136,34 +3884,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -3171,19 +3919,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3195,87 +3943,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3284,34 +4032,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -3320,11 +4068,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3338,6 +4081,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3345,344 +4093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -3698,32 +4109,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3732,8 +4143,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3788,7 +4199,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3808,7 +4219,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3826,7 +4237,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3844,7 +4255,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3864,7 +4275,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3882,7 +4293,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3900,7 +4311,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3920,7 +4331,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3938,7 +4349,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3976,7 +4387,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3996,7 +4407,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4014,7 +4425,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4032,7 +4443,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4052,7 +4463,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4481,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4088,7 +4499,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4108,7 +4519,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4126,7 +4537,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4184,7 +4595,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4204,7 +4615,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4222,7 +4633,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4242,7 +4653,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4260,7 +4671,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4278,7 +4689,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4296,7 +4707,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4314,7 +4725,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4332,7 +4743,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4350,7 +4761,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4368,7 +4779,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4386,7 +4797,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4404,7 +4815,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4423,11 +4834,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4438,6 +4844,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -12,21 +12,22 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="最新7-21" sheetId="12" r:id="rId1"/>
-    <sheet name="newest (2)" sheetId="7" r:id="rId2"/>
-    <sheet name="newest" sheetId="6" r:id="rId3"/>
-    <sheet name="newest（3）" sheetId="8" r:id="rId4"/>
-    <sheet name="newest（4）" sheetId="9" r:id="rId5"/>
-    <sheet name="newest（5）" sheetId="10" r:id="rId6"/>
-    <sheet name="newest（6）" sheetId="11" r:id="rId7"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="7-28" sheetId="13" r:id="rId1"/>
+    <sheet name="7-21" sheetId="12" r:id="rId2"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="newest" sheetId="6" r:id="rId4"/>
+    <sheet name="newest（3）" sheetId="8" r:id="rId5"/>
+    <sheet name="newest（4）" sheetId="9" r:id="rId6"/>
+    <sheet name="newest（5）" sheetId="10" r:id="rId7"/>
+    <sheet name="newest（6）" sheetId="11" r:id="rId8"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="166">
   <si>
     <t>分组</t>
   </si>
@@ -577,6 +578,61 @@
   <si>
     <t>北京捷越无纸化项目跟进
 根据拉通会的交流情况，学习其他产品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉通会，无纸化+云证通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合签章接口多场景接口代码重组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代汽车消费金融项目准备，北京捷越项目跟进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA应用方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中石油手写屏问题跟进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中石油手写屏问题配合厂商处理（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中石油手写屏问题配合厂商处理（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代汽车消费金融项目交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中石油手写屏问题分析与解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大都会人寿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目跟进
+标书</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,6 +1349,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1302,6 +1361,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1309,21 +1383,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1741,19 +1800,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1765,87 +1824,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="42">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1854,34 +1913,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -1889,19 +1948,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1913,87 +1972,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2005,377 +2064,36 @@
         <v>146</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2404,7 +2122,685 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>29</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42934</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42935</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42936</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42937</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42938</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="44"/>
+      <c r="B3" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42940</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42941</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42942</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42943</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42944</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42945</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="44"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="42">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="42">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2420,13 +2816,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2444,47 +2840,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2569,13 +2965,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2593,47 +2989,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2718,6 +3114,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -2726,16 +3132,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2743,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2758,13 +3154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2782,47 +3178,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,6,19)</f>
         <v>42905</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42906</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42907</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42908</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42909</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42910</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42911</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="34" t="s">
         <v>86</v>
       </c>
@@ -2906,13 +3302,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2930,47 +3326,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42913</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42914</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42915</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42916</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42917</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42918</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3082,7 +3478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3097,13 +3493,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3121,47 +3517,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="37" t="s">
         <v>86</v>
       </c>
@@ -3245,13 +3641,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3269,47 +3665,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="37" t="s">
         <v>2</v>
       </c>
@@ -3394,6 +3790,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3407,11 +3808,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3419,7 +3815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3434,13 +3830,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3458,47 +3854,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="38" t="s">
         <v>86</v>
       </c>
@@ -3582,13 +3978,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3606,47 +4002,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -3731,6 +4127,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3744,11 +4145,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3756,7 +4152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3771,13 +4167,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3795,47 +4191,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="39" t="s">
         <v>86</v>
       </c>
@@ -3919,13 +4315,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3943,47 +4339,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
@@ -4068,6 +4464,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -4081,11 +4482,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4093,7 +4489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -4109,32 +4505,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -4143,8 +4539,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +4595,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4219,7 +4615,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4237,7 +4633,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4255,7 +4651,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4275,7 +4671,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -4293,7 +4689,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4311,7 +4707,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4331,7 +4727,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4349,7 +4745,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4387,7 +4783,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4407,7 +4803,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -4425,7 +4821,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -4443,7 +4839,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4463,7 +4859,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -4481,7 +4877,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4499,7 +4895,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4519,7 +4915,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4537,7 +4933,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4595,7 +4991,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4615,7 +5011,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4633,7 +5029,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4653,7 +5049,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4671,7 +5067,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4689,7 +5085,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4707,7 +5103,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4725,7 +5121,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4743,7 +5139,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4761,7 +5157,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4779,7 +5175,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4797,7 +5193,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4815,7 +5211,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4834,6 +5230,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4844,11 +5245,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -12,22 +12,23 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="7-28" sheetId="13" r:id="rId1"/>
-    <sheet name="7-21" sheetId="12" r:id="rId2"/>
-    <sheet name="newest (2)" sheetId="7" r:id="rId3"/>
-    <sheet name="newest" sheetId="6" r:id="rId4"/>
-    <sheet name="newest（3）" sheetId="8" r:id="rId5"/>
-    <sheet name="newest（4）" sheetId="9" r:id="rId6"/>
-    <sheet name="newest（5）" sheetId="10" r:id="rId7"/>
-    <sheet name="newest（6）" sheetId="11" r:id="rId8"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId9"/>
+    <sheet name="8-4" sheetId="14" r:id="rId1"/>
+    <sheet name="7-28" sheetId="13" r:id="rId2"/>
+    <sheet name="7-21" sheetId="12" r:id="rId3"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId4"/>
+    <sheet name="newest" sheetId="6" r:id="rId5"/>
+    <sheet name="newest（3）" sheetId="8" r:id="rId6"/>
+    <sheet name="newest（4）" sheetId="9" r:id="rId7"/>
+    <sheet name="newest（5）" sheetId="10" r:id="rId8"/>
+    <sheet name="newest（6）" sheetId="11" r:id="rId9"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="175">
   <si>
     <t>分组</t>
   </si>
@@ -633,6 +634,42 @@
   <si>
     <t>北京捷越无纸化项目跟进
 标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大都会人寿CFCA实力介绍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>weblogic安装</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东农信电子印章专题实施标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东农信电子印章专题实施标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行电子签名系统项目标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行电子签名系统项目标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行讲标PPT准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行讲标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险、物流无纸化方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,6 +1389,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,6 +1401,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1374,15 +1423,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1790,7 +1830,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1800,13 +1840,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1824,87 +1864,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1913,34 +1953,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -1948,13 +1988,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1972,87 +2012,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="5">D2+7</f>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f>D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="6">F2+7</f>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="7">H2+7</f>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="8">J2+7</f>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="9">L2+7</f>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="10">N2+7</f>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2061,34 +2101,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2102,6 +2142,11 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2110,14 +2155,772 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="A4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="50"/>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="A12" s="50"/>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1">
+      <c r="A17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1">
+      <c r="A19" s="50"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="A22" s="50"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1">
+      <c r="A25" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1">
+      <c r="A27" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1">
+      <c r="A35" s="52"/>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" customHeight="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" customHeight="1">
+      <c r="A37" s="52"/>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2137,19 +2940,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2161,87 +2964,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="B2" s="43">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="42"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2250,34 +3053,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -2285,19 +3088,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2309,87 +3112,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="42"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2401,31 +3204,31 @@
         <v>146</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2463,6 +3266,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>29</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42934</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42935</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42936</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42937</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42938</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="45"/>
+      <c r="B3" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42940</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42941</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42942</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42943</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42944</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42945</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="45"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C14" sqref="C14"/>
@@ -2475,13 +3615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2499,47 +3639,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
@@ -2624,13 +3764,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2648,47 +3788,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2772,6 +3912,1021 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="45"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="45"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="45"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="43">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="45"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2800,1022 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="42">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="42">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="42">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="42">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3830,13 +4970,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3854,47 +4994,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="38" t="s">
         <v>86</v>
       </c>
@@ -3978,13 +5118,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4002,47 +5142,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -4127,11 +5267,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -4145,6 +5280,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4152,7 +5292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -4167,13 +5307,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4191,47 +5331,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="39" t="s">
         <v>86</v>
       </c>
@@ -4315,13 +5455,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4339,47 +5479,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
@@ -4464,11 +5604,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -4482,772 +5617,14 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-    </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-    </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A16"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -12,23 +12,24 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="8-4" sheetId="14" r:id="rId1"/>
-    <sheet name="7-28" sheetId="13" r:id="rId2"/>
-    <sheet name="7-21" sheetId="12" r:id="rId3"/>
-    <sheet name="newest (2)" sheetId="7" r:id="rId4"/>
-    <sheet name="newest" sheetId="6" r:id="rId5"/>
-    <sheet name="newest（3）" sheetId="8" r:id="rId6"/>
-    <sheet name="newest（4）" sheetId="9" r:id="rId7"/>
-    <sheet name="newest（5）" sheetId="10" r:id="rId8"/>
-    <sheet name="newest（6）" sheetId="11" r:id="rId9"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="8-11" sheetId="15" r:id="rId1"/>
+    <sheet name="8-4" sheetId="14" r:id="rId2"/>
+    <sheet name="7-28" sheetId="13" r:id="rId3"/>
+    <sheet name="7-21" sheetId="12" r:id="rId4"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId5"/>
+    <sheet name="newest" sheetId="6" r:id="rId6"/>
+    <sheet name="newest（3）" sheetId="8" r:id="rId7"/>
+    <sheet name="newest（4）" sheetId="9" r:id="rId8"/>
+    <sheet name="newest（5）" sheetId="10" r:id="rId9"/>
+    <sheet name="newest（6）" sheetId="11" r:id="rId10"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="182">
   <si>
     <t>分组</t>
   </si>
@@ -670,6 +671,33 @@
   </si>
   <si>
     <t>保险、物流无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行招标</t>
+  </si>
+  <si>
+    <t>包商银行招标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名验签服务器培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASN.1相关学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券行业方案</t>
+  </si>
+  <si>
+    <t>证券行业方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化项目
+信托无纸化方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +1290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1392,6 +1420,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,6 +1432,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,21 +1454,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1830,7 +1861,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1840,13 +1871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1864,87 +1895,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1953,34 +1984,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -1988,13 +2019,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2012,87 +2043,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f>D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2101,34 +2132,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2164,6 +2195,343 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>28</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="46"/>
+      <c r="B3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -2178,32 +2546,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2212,8 +2580,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2268,7 +2636,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2288,7 +2656,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="49"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2674,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2692,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2344,7 +2712,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2362,7 +2730,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2748,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2400,7 +2768,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="49"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2418,7 +2786,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2456,7 +2824,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2476,7 +2844,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="49"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2494,7 +2862,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2512,7 +2880,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2532,7 +2900,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="49"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2550,7 +2918,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2568,7 +2936,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2588,7 +2956,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="49"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2974,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="50"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2664,7 +3032,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2684,7 +3052,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2702,7 +3070,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2722,7 +3090,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2740,7 +3108,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +3126,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2776,7 +3144,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2794,7 +3162,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2812,7 +3180,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2830,7 +3198,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +3216,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2866,7 +3234,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="52"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2884,7 +3252,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2903,6 +3271,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2913,11 +3286,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2940,13 +3308,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2964,87 +3332,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3053,34 +3421,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -3088,13 +3456,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3112,87 +3480,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="5">D2+7</f>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f>D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="6">F2+7</f>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="7">H2+7</f>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="8">J2+7</f>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="9">L2+7</f>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="10">N2+7</f>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3201,34 +3569,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -3277,19 +3645,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3301,87 +3669,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="B2" s="44">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="43"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3390,34 +3758,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -3425,19 +3793,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3449,87 +3817,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="43"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3541,31 +3909,31 @@
         <v>146</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -3603,6 +3971,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>29</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42934</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42935</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42936</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42937</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42938</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="46"/>
+      <c r="B3" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42940</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42941</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42942</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42943</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42944</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42945</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C14" sqref="C14"/>
@@ -3615,13 +4320,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3639,47 +4344,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
@@ -3764,13 +4469,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3788,47 +4493,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -3912,6 +4617,1021 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="46"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="46"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="44">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3940,1022 +5660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>25</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -4970,13 +5675,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4994,47 +5699,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
         <f>SUM(B2+1)</f>
         <v>42920</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42921</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42922</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42923</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42924</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42925</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="38" t="s">
         <v>86</v>
       </c>
@@ -5118,13 +5823,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -5142,47 +5847,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>B2+7</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42927</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42928</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42929</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42930</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42931</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42932</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
@@ -5267,6 +5972,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -5280,348 +5990,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>28</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="43">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43">
-        <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43">
-        <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,24 +12,25 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="8-11" sheetId="15" r:id="rId1"/>
-    <sheet name="8-4" sheetId="14" r:id="rId2"/>
-    <sheet name="7-28" sheetId="13" r:id="rId3"/>
-    <sheet name="7-21" sheetId="12" r:id="rId4"/>
-    <sheet name="newest (2)" sheetId="7" r:id="rId5"/>
-    <sheet name="newest" sheetId="6" r:id="rId6"/>
-    <sheet name="newest（3）" sheetId="8" r:id="rId7"/>
-    <sheet name="newest（4）" sheetId="9" r:id="rId8"/>
-    <sheet name="newest（5）" sheetId="10" r:id="rId9"/>
-    <sheet name="newest（6）" sheetId="11" r:id="rId10"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId11"/>
+    <sheet name="8-18" sheetId="16" r:id="rId1"/>
+    <sheet name="8-11" sheetId="15" r:id="rId2"/>
+    <sheet name="8-4" sheetId="14" r:id="rId3"/>
+    <sheet name="7-28" sheetId="13" r:id="rId4"/>
+    <sheet name="7-21" sheetId="12" r:id="rId5"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="newest" sheetId="6" r:id="rId7"/>
+    <sheet name="newest（3）" sheetId="8" r:id="rId8"/>
+    <sheet name="newest（4）" sheetId="9" r:id="rId9"/>
+    <sheet name="newest（5）" sheetId="10" r:id="rId10"/>
+    <sheet name="newest（6）" sheetId="11" r:id="rId11"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="193">
   <si>
     <t>分组</t>
   </si>
@@ -698,6 +699,55 @@
   <si>
     <t>北京捷越无纸化项目
 信托无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平顶山银行项目支撑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包金服无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化接口demo调用
+钱包金服项目接口及判例资料准备
+北京捷越项目支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化接口demo调用；
+钱包金服项目接口及判例资料准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越移动端无纸化项目交流以及电子签章系统问题配合处理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越移动端无纸化项目交流以及电子签章系统问题配合处理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越项目支撑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化功能介绍文档
+无纸化接口调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统3654部署使用
+北京捷越项目支撑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信托无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信托无纸化方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,6 +1473,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1432,6 +1485,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,15 +1507,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1861,7 +1914,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1871,19 +1924,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1895,87 +1948,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1984,34 +2037,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -2019,19 +2072,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2043,87 +2096,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42968</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f>D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42969</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42970</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42971</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42972</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42973</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2132,34 +2185,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2198,7 +2251,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2208,19 +2261,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2232,87 +2285,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="39" t="s">
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2321,34 +2374,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -2356,19 +2409,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2380,87 +2433,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="39" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2469,34 +2522,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2505,11 +2558,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2523,6 +2571,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,6 +2584,343 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>28</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="47"/>
+      <c r="B3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2546,32 +2936,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="52" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2580,8 +2970,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2636,7 +3026,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="53" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2656,7 +3046,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2674,7 +3064,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2692,7 +3082,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2712,7 +3102,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2730,7 +3120,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2748,7 +3138,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2768,7 +3158,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +3176,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2824,7 +3214,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2844,7 +3234,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2862,7 +3252,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2880,7 +3270,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="51" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2900,7 +3290,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2918,7 +3308,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2936,7 +3326,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2956,7 +3346,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2974,7 +3364,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3032,7 +3422,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="53" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3052,7 +3442,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3070,7 +3460,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3090,7 +3480,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3108,7 +3498,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3126,7 +3516,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3534,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3162,7 +3552,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3180,7 +3570,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3198,7 +3588,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3216,7 +3606,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3234,7 +3624,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3252,7 +3642,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3271,11 +3661,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3286,6 +3671,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3298,7 +3688,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3308,13 +3698,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3332,87 +3722,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="45">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3421,34 +3811,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -3456,13 +3846,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3480,87 +3870,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f>D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3569,34 +3959,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -3645,13 +4035,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3669,87 +4059,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="45">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3758,34 +4148,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -3793,13 +4183,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3817,87 +4207,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f>D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3906,34 +4296,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -3982,19 +4372,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4006,87 +4396,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4095,34 +4485,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -4130,19 +4520,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4154,87 +4544,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4246,31 +4636,31 @@
         <v>146</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -4308,688 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>23</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>24</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4999,19 +4709,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5023,123 +4733,123 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42934</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42935</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42936</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42937</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42938</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="44"/>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -5147,19 +4857,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5171,87 +4881,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42940</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42942</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42944</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42945</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="44"/>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5260,373 +4970,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -5660,34 +5031,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="15" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5698,144 +5070,145 @@
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
+      <c r="B2" s="45">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44">
+        <v>42899</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44">
+        <v>42900</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44">
+        <v>42901</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44">
+        <v>42902</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44">
+        <v>42903</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="38" t="s">
+        <v>42904</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="45" t="s">
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5846,129 +5219,131 @@
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+        <v>42905</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44">
+        <v>42906</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+        <v>42907</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44">
+        <v>42908</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44">
+        <v>42909</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44">
+        <v>42910</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5995,4 +5370,1019 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="47"/>
+      <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="47"/>
+      <c r="B3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="45">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -12,25 +12,26 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="8-18" sheetId="16" r:id="rId1"/>
-    <sheet name="8-11" sheetId="15" r:id="rId2"/>
-    <sheet name="8-4" sheetId="14" r:id="rId3"/>
-    <sheet name="7-28" sheetId="13" r:id="rId4"/>
-    <sheet name="7-21" sheetId="12" r:id="rId5"/>
-    <sheet name="newest (2)" sheetId="7" r:id="rId6"/>
-    <sheet name="newest" sheetId="6" r:id="rId7"/>
-    <sheet name="newest（3）" sheetId="8" r:id="rId8"/>
-    <sheet name="newest（4）" sheetId="9" r:id="rId9"/>
-    <sheet name="newest（5）" sheetId="10" r:id="rId10"/>
-    <sheet name="newest（6）" sheetId="11" r:id="rId11"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="8-25" sheetId="17" r:id="rId1"/>
+    <sheet name="8-18" sheetId="16" r:id="rId2"/>
+    <sheet name="8-11" sheetId="15" r:id="rId3"/>
+    <sheet name="8-4" sheetId="14" r:id="rId4"/>
+    <sheet name="7-28" sheetId="13" r:id="rId5"/>
+    <sheet name="7-21" sheetId="12" r:id="rId6"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId7"/>
+    <sheet name="newest" sheetId="6" r:id="rId8"/>
+    <sheet name="newest（3）" sheetId="8" r:id="rId9"/>
+    <sheet name="newest（4）" sheetId="9" r:id="rId10"/>
+    <sheet name="newest（5）" sheetId="10" r:id="rId11"/>
+    <sheet name="newest（6）" sheetId="11" r:id="rId12"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="203">
   <si>
     <t>分组</t>
   </si>
@@ -748,6 +749,46 @@
   </si>
   <si>
     <t>信托无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越项目支撑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰汽车金融PPT准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰汽车金融无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家信息安全中心无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包金服无纸化解决方案、接口资料准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越项目流程、接口交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>工控机无纸化部署、柜面演示外设接入，演示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜面无纸化的使用，无纸化系统功能介绍准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无纸化系统功能展示、柜面流程演示</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,6 +1517,9 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1485,6 +1529,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1492,21 +1551,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1914,7 +1958,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1924,19 +1968,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1948,87 +1992,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,8,14)</f>
-        <v>42961</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42962</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42963</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42964</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42965</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42966</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42967</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="44" t="s">
+      <c r="C3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2037,34 +2081,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -2072,19 +2116,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2096,87 +2140,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42968</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f>D2+7</f>
-        <v>42969</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42970</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42971</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42972</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42973</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42974</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2184,36 +2228,16 @@
       <c r="A9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>182</v>
-      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
@@ -2250,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2261,19 +2285,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2285,87 +2309,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42914</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42915</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42916</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42917</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2374,34 +2398,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -2409,19 +2433,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2433,87 +2457,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42919</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42920</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42921</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42922</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42924</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2522,34 +2546,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2558,6 +2582,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2571,11 +2600,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2584,6 +2608,343 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="15" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>27</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <f>SUM(B2+1)</f>
+        <v>42920</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42921</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42922</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42923</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42924</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>28</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="46">
+        <f>B2+7</f>
+        <v>42926</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42927</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42928</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42929</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42930</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42931</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="48"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2598,13 +2959,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2622,47 +2983,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="39" t="s">
         <v>86</v>
       </c>
@@ -2746,13 +3107,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2770,47 +3131,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
@@ -2895,6 +3256,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2908,11 +3274,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2920,7 +3281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2936,32 +3297,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2970,8 +3331,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3026,7 +3387,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3046,7 +3407,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3064,7 +3425,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +3443,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3102,7 +3463,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3120,7 +3481,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +3499,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3158,7 +3519,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3176,7 +3537,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3214,7 +3575,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3234,7 +3595,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="51"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3252,7 +3613,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3270,7 +3631,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3290,7 +3651,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="51"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3308,7 +3669,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3326,7 +3687,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3346,7 +3707,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="51"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3364,7 +3725,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3422,7 +3783,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3442,7 +3803,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3460,7 +3821,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="52" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3480,7 +3841,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3498,7 +3859,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3516,7 +3877,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3895,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3552,7 +3913,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3570,7 +3931,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3588,7 +3949,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3606,7 +3967,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3624,7 +3985,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +4003,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3661,6 +4022,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3671,11 +4037,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3688,7 +4049,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3698,19 +4059,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3722,87 +4083,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3811,34 +4172,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -3846,19 +4207,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3870,87 +4231,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f>D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42969</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42970</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42971</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42972</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42973</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3959,34 +4320,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -4025,7 +4386,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4035,13 +4396,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4059,87 +4420,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4148,34 +4509,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -4183,13 +4544,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4207,87 +4568,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f>D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4296,34 +4657,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -4372,13 +4733,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -4396,87 +4757,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
         <v>42941</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42942</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42943</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42944</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42945</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42946</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4485,34 +4846,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -4520,13 +4881,13 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -4544,87 +4905,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
         <v>42947</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
-        <f t="shared" ref="D7" si="5">D2+7</f>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
+        <f>D2+7</f>
         <v>42948</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7" si="6">F2+7</f>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <f t="shared" ref="F7" si="5">F2+7</f>
         <v>42949</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
-        <f t="shared" ref="H7" si="7">H2+7</f>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <f t="shared" ref="H7" si="6">H2+7</f>
         <v>42950</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
-        <f t="shared" ref="J7" si="8">J2+7</f>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7" si="7">J2+7</f>
         <v>42951</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
-        <f t="shared" ref="L7" si="9">L2+7</f>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
+        <f t="shared" ref="L7" si="8">L2+7</f>
         <v>42952</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
-        <f t="shared" ref="N7" si="10">N2+7</f>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
+        <f t="shared" ref="N7" si="9">N2+7</f>
         <v>42953</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="41" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4633,34 +4994,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -4709,19 +5070,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4733,87 +5094,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="B2" s="46">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="45"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4822,34 +5183,34 @@
         <v>64</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -4857,19 +5218,19 @@
       <c r="O4" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4881,87 +5242,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="46">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="45"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <